--- a/model/test.xlsx
+++ b/model/test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\J.A.R.V.I.S\model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bansa\Desktop\github\J.A.R.V.I.S\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D36E129B-64DF-4DF0-B61C-0A6095A4B43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF4DCE8-99C3-4EFD-87C3-30110B8F5210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{E8AEABA8-9C64-48A4-9FBE-8F5FEBA2B11A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <t>Test 01</t>
   </si>
@@ -75,6 +75,15 @@
   </si>
   <si>
     <t>ptl=2</t>
+  </si>
+  <si>
+    <t>bansal01</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>fail</t>
   </si>
 </sst>
 </file>
@@ -432,23 +441,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38FEFE4C-FF1D-4B65-8BBD-1A8E234B34C0}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>12</v>
       </c>
       <c r="C1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -458,8 +470,11 @@
       <c r="C2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -469,8 +484,11 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -480,8 +498,11 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -491,16 +512,22 @@
       <c r="C5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -508,7 +535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -516,7 +543,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -524,7 +551,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -532,7 +559,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
